--- a/GcOps/项目检查&PR会登记表.xlsx
+++ b/GcOps/项目检查&PR会登记表.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="12630" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="项目检查" sheetId="1" r:id="rId1"/>
     <sheet name="项目复盘" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>项目检查情况登记表</t>
   </si>
@@ -75,6 +75,39 @@
   </si>
   <si>
     <t>黄绍华</t>
+  </si>
+  <si>
+    <t>非梵酒店(香格里拉店)</t>
+  </si>
+  <si>
+    <t>快捷版</t>
+  </si>
+  <si>
+    <t>吕红桃</t>
+  </si>
+  <si>
+    <t>李铭</t>
+  </si>
+  <si>
+    <t>厦门悦莱酒店</t>
+  </si>
+  <si>
+    <t>陈明明</t>
+  </si>
+  <si>
+    <t>黄超元</t>
+  </si>
+  <si>
+    <t>不合格</t>
+  </si>
+  <si>
+    <t>海口兴泰粤海酒店【皓谷联盟酒店】</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>李秀光</t>
   </si>
   <si>
     <t>项目复盘【PR】登记表</t>
@@ -141,11 +174,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -181,8 +214,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,23 +266,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -220,46 +274,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,30 +296,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,8 +334,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,187 +379,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,11 +645,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,6 +698,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,45 +742,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -717,10 +750,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,137 +762,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -944,9 +977,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -957,9 +987,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
@@ -1415,22 +1442,22 @@
   </sheetPr>
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="28" customWidth="1"/>
+    <col min="2" max="2" width="34.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="13" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="29" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="30" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="28" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="29" customWidth="1"/>
     <col min="9" max="9" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1443,9 +1470,9 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="37"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" ht="19.5" spans="1:9">
       <c r="A2" s="13" t="s">
@@ -1483,7 +1510,7 @@
       <c r="B3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="25" t="s">
@@ -1492,14 +1519,14 @@
       <c r="E3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" ht="18.75" spans="1:9">
       <c r="A4" s="23">
@@ -1508,7 +1535,7 @@
       <c r="B4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="25" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="25" t="s">
@@ -1517,795 +1544,835 @@
       <c r="E4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" ht="18.75" spans="1:9">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="34"/>
+      <c r="A5" s="23">
+        <v>42837</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="34"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" ht="18.75" spans="1:9">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="34"/>
+      <c r="A6" s="23">
+        <v>42837</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="34"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" ht="18.75" spans="1:9">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="34"/>
+      <c r="A7" s="23">
+        <v>42837</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" ht="18.75" spans="1:9">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
-      <c r="C8" s="33"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="34"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" ht="18.75" spans="1:9">
       <c r="A9" s="23"/>
       <c r="B9" s="24"/>
-      <c r="C9" s="33"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="34"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" ht="18.75" spans="1:9">
       <c r="A10" s="23"/>
       <c r="B10" s="24"/>
-      <c r="C10" s="33"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="34"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" ht="18.75" spans="1:9">
       <c r="A11" s="23"/>
       <c r="B11" s="24"/>
-      <c r="C11" s="33"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="34"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" ht="18.75" spans="1:9">
       <c r="A12" s="23"/>
       <c r="B12" s="24"/>
-      <c r="C12" s="33"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="34"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" ht="18.75" spans="1:9">
       <c r="A13" s="23"/>
       <c r="B13" s="24"/>
-      <c r="C13" s="33"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="34"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" ht="18.75" spans="1:9">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
-      <c r="C14" s="33"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="34"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" ht="18.75" spans="1:9">
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
-      <c r="C15" s="33"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="34"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" ht="18.75" spans="1:9">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
-      <c r="C16" s="33"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="34"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" ht="18.75" spans="1:9">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
-      <c r="C17" s="33"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="34"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="32"/>
     </row>
     <row r="18" ht="18.75" spans="1:9">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="33"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="34"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="32"/>
     </row>
     <row r="19" ht="18.75" spans="1:9">
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
-      <c r="C19" s="33"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="34"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="32"/>
     </row>
     <row r="20" ht="18.75" spans="1:9">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="33"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="34"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="32"/>
     </row>
     <row r="21" ht="18.75" spans="1:9">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="33"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="34"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="32"/>
     </row>
     <row r="22" ht="18.75" spans="1:9">
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="33"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="34"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="32"/>
     </row>
     <row r="23" ht="18.75" spans="1:9">
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
-      <c r="C23" s="33"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="34"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="32"/>
     </row>
     <row r="24" ht="18.75" spans="1:9">
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
-      <c r="C24" s="33"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="34"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" ht="18.75" spans="1:9">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="33"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="34"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="32"/>
     </row>
     <row r="26" ht="18.75" spans="1:9">
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="33"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="34"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="32"/>
     </row>
     <row r="27" ht="18.75" spans="1:9">
       <c r="A27" s="23"/>
       <c r="B27" s="24"/>
-      <c r="C27" s="33"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="34"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="32"/>
     </row>
     <row r="28" ht="18.75" spans="1:9">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
-      <c r="C28" s="33"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="34"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" ht="18.75" spans="1:9">
       <c r="A29" s="23"/>
       <c r="B29" s="24"/>
-      <c r="C29" s="33"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="34"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="32"/>
     </row>
     <row r="30" ht="18.75" spans="1:9">
       <c r="A30" s="23"/>
       <c r="B30" s="24"/>
-      <c r="C30" s="33"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="34"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="32"/>
     </row>
     <row r="31" ht="18.75" spans="1:9">
       <c r="A31" s="23"/>
       <c r="B31" s="24"/>
-      <c r="C31" s="33"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="34"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="32"/>
     </row>
     <row r="32" ht="18.75" spans="1:9">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="33"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="34"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="32"/>
     </row>
     <row r="33" ht="18.75" spans="1:9">
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
-      <c r="C33" s="33"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="34"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="32"/>
     </row>
     <row r="34" ht="18.75" spans="1:9">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
-      <c r="C34" s="33"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="34"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="32"/>
     </row>
     <row r="35" ht="18.75" spans="1:9">
       <c r="A35" s="23"/>
       <c r="B35" s="24"/>
-      <c r="C35" s="33"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="25"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="34"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="32"/>
     </row>
     <row r="36" ht="18.75" spans="1:9">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
-      <c r="C36" s="33"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="34"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="32"/>
     </row>
     <row r="37" ht="18.75" spans="1:9">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
-      <c r="C37" s="33"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="34"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="32"/>
     </row>
     <row r="38" ht="18.75" spans="1:9">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
-      <c r="C38" s="33"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="34"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="32"/>
     </row>
     <row r="39" ht="18.75" spans="1:9">
       <c r="A39" s="23"/>
       <c r="B39" s="24"/>
-      <c r="C39" s="33"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="34"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="32"/>
     </row>
     <row r="40" ht="18.75" spans="1:9">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
-      <c r="C40" s="33"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="34"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="32"/>
     </row>
     <row r="41" ht="18.75" spans="1:9">
       <c r="A41" s="23"/>
       <c r="B41" s="24"/>
-      <c r="C41" s="33"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="34"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="32"/>
     </row>
     <row r="42" ht="18.75" spans="1:9">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
-      <c r="C42" s="33"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="34"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="32"/>
     </row>
     <row r="43" ht="18.75" spans="1:9">
       <c r="A43" s="23"/>
       <c r="B43" s="24"/>
-      <c r="C43" s="33"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="34"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="32"/>
     </row>
     <row r="44" ht="18.75" spans="1:9">
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
-      <c r="C44" s="33"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="34"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="32"/>
     </row>
     <row r="45" ht="18.75" spans="1:9">
       <c r="A45" s="23"/>
       <c r="B45" s="24"/>
-      <c r="C45" s="33"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="34"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="32"/>
     </row>
     <row r="46" ht="18.75" spans="1:9">
       <c r="A46" s="23"/>
       <c r="B46" s="24"/>
-      <c r="C46" s="33"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="34"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="32"/>
     </row>
     <row r="47" ht="18.75" spans="1:9">
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
-      <c r="C47" s="33"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="34"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="32"/>
     </row>
     <row r="48" ht="18.75" spans="1:9">
       <c r="A48" s="23"/>
       <c r="B48" s="24"/>
-      <c r="C48" s="33"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="34"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="32"/>
     </row>
     <row r="49" ht="18.75" spans="1:9">
       <c r="A49" s="23"/>
       <c r="B49" s="24"/>
-      <c r="C49" s="33"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="34"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="32"/>
     </row>
     <row r="50" ht="18.75" spans="1:9">
       <c r="A50" s="23"/>
       <c r="B50" s="24"/>
-      <c r="C50" s="33"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="25"/>
       <c r="E50" s="25"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="34"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="32"/>
     </row>
     <row r="51" ht="18.75" spans="1:9">
       <c r="A51" s="23"/>
       <c r="B51" s="24"/>
-      <c r="C51" s="33"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="34"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="32"/>
     </row>
     <row r="52" ht="18.75" spans="1:9">
       <c r="A52" s="23"/>
       <c r="B52" s="24"/>
-      <c r="C52" s="33"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="34"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="32"/>
     </row>
     <row r="53" ht="18.75" spans="1:9">
       <c r="A53" s="23"/>
       <c r="B53" s="24"/>
-      <c r="C53" s="33"/>
+      <c r="C53" s="25"/>
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="34"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="32"/>
     </row>
     <row r="54" ht="18.75" spans="1:9">
       <c r="A54" s="23"/>
       <c r="B54" s="24"/>
-      <c r="C54" s="33"/>
+      <c r="C54" s="25"/>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="34"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="32"/>
     </row>
     <row r="55" ht="18.75" spans="1:9">
       <c r="A55" s="23"/>
       <c r="B55" s="24"/>
-      <c r="C55" s="33"/>
+      <c r="C55" s="25"/>
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="34"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="32"/>
     </row>
     <row r="56" ht="18.75" spans="1:9">
       <c r="A56" s="23"/>
       <c r="B56" s="24"/>
-      <c r="C56" s="33"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="34"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="32"/>
     </row>
     <row r="57" ht="18.75" spans="1:9">
       <c r="A57" s="23"/>
       <c r="B57" s="24"/>
-      <c r="C57" s="33"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="34"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="32"/>
     </row>
     <row r="58" ht="18.75" spans="1:9">
       <c r="A58" s="23"/>
       <c r="B58" s="24"/>
-      <c r="C58" s="33"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="25"/>
       <c r="E58" s="25"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="34"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="32"/>
     </row>
     <row r="59" ht="18.75" spans="1:9">
       <c r="A59" s="23"/>
       <c r="B59" s="24"/>
-      <c r="C59" s="33"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="34"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="32"/>
     </row>
     <row r="60" ht="18.75" spans="1:9">
       <c r="A60" s="23"/>
       <c r="B60" s="24"/>
-      <c r="C60" s="33"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="34"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="32"/>
     </row>
     <row r="61" ht="18.75" spans="1:9">
       <c r="A61" s="23"/>
       <c r="B61" s="24"/>
-      <c r="C61" s="33"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="34"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="32"/>
     </row>
     <row r="62" ht="18.75" spans="1:9">
       <c r="A62" s="23"/>
       <c r="B62" s="24"/>
-      <c r="C62" s="33"/>
+      <c r="C62" s="25"/>
       <c r="D62" s="25"/>
       <c r="E62" s="25"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="34"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="32"/>
     </row>
     <row r="63" ht="18.75" spans="1:9">
       <c r="A63" s="23"/>
       <c r="B63" s="24"/>
-      <c r="C63" s="33"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="25"/>
       <c r="E63" s="25"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="34"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="32"/>
     </row>
     <row r="64" ht="18.75" spans="1:9">
       <c r="A64" s="23"/>
       <c r="B64" s="24"/>
-      <c r="C64" s="33"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="25"/>
       <c r="E64" s="25"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="34"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="32"/>
     </row>
     <row r="65" ht="18.75" spans="1:9">
       <c r="A65" s="23"/>
       <c r="B65" s="24"/>
-      <c r="C65" s="33"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="25"/>
       <c r="E65" s="25"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="34"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="32"/>
     </row>
     <row r="66" ht="18.75" spans="1:9">
       <c r="A66" s="23"/>
       <c r="B66" s="24"/>
-      <c r="C66" s="33"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="25"/>
       <c r="E66" s="25"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="34"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="32"/>
     </row>
     <row r="67" ht="18.75" spans="1:9">
       <c r="A67" s="23"/>
       <c r="B67" s="24"/>
-      <c r="C67" s="33"/>
+      <c r="C67" s="25"/>
       <c r="D67" s="25"/>
       <c r="E67" s="25"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="34"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="32"/>
     </row>
     <row r="68" ht="18.75" spans="1:9">
       <c r="A68" s="23"/>
       <c r="B68" s="24"/>
-      <c r="C68" s="33"/>
+      <c r="C68" s="25"/>
       <c r="D68" s="25"/>
       <c r="E68" s="25"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="34"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="32"/>
     </row>
     <row r="69" ht="18.75" spans="1:9">
       <c r="A69" s="23"/>
       <c r="B69" s="24"/>
-      <c r="C69" s="33"/>
+      <c r="C69" s="25"/>
       <c r="D69" s="25"/>
       <c r="E69" s="25"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="34"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="32"/>
     </row>
     <row r="70" ht="18.75" spans="1:9">
       <c r="A70" s="23"/>
       <c r="B70" s="24"/>
-      <c r="C70" s="33"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="25"/>
       <c r="E70" s="25"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="34"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="32"/>
     </row>
     <row r="71" ht="18.75" spans="1:9">
       <c r="A71" s="23"/>
       <c r="B71" s="24"/>
-      <c r="C71" s="33"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="25"/>
       <c r="E71" s="25"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="34"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="32"/>
     </row>
     <row r="72" ht="18.75" spans="1:9">
       <c r="A72" s="23"/>
       <c r="B72" s="24"/>
-      <c r="C72" s="33"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="34"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="32"/>
     </row>
     <row r="73" ht="18.75" spans="1:9">
       <c r="A73" s="23"/>
       <c r="B73" s="24"/>
-      <c r="C73" s="33"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="25"/>
       <c r="E73" s="25"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="34"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="32"/>
     </row>
     <row r="74" ht="18.75" spans="1:9">
       <c r="A74" s="23"/>
       <c r="B74" s="24"/>
-      <c r="C74" s="33"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="25"/>
       <c r="E74" s="25"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="34"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="32"/>
     </row>
     <row r="75" ht="18.75" spans="1:9">
       <c r="A75" s="23"/>
       <c r="B75" s="24"/>
-      <c r="C75" s="33"/>
+      <c r="C75" s="25"/>
       <c r="D75" s="25"/>
       <c r="E75" s="25"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="34"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2334,7 +2401,7 @@
   </sheetPr>
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -2351,7 +2418,7 @@
   <sheetData>
     <row r="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -2362,25 +2429,25 @@
     </row>
     <row r="2" customFormat="1" ht="19.5" spans="1:7">
       <c r="A2" s="13" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="42" customHeight="1" spans="1:7">
@@ -2394,7 +2461,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -2405,20 +2472,20 @@
         <v>42831</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="82" customHeight="1" spans="1:7">
@@ -2426,20 +2493,20 @@
         <v>42831</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="20" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="18.75" spans="1:7">

--- a/GcOps/项目检查&PR会登记表.xlsx
+++ b/GcOps/项目检查&PR会登记表.xlsx
@@ -89,7 +89,7 @@
     <t>李铭</t>
   </si>
   <si>
-    <t>厦门悦莱酒店</t>
+    <t>厦门悦来酒店</t>
   </si>
   <si>
     <t>陈明明</t>
@@ -174,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -214,16 +214,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,9 +230,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,7 +244,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,32 +257,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,44 +266,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -350,6 +280,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +333,30 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -379,187 +379,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,16 +646,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,46 +673,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,6 +693,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -742,6 +727,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -750,10 +750,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,133 +762,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1443,9 +1443,9 @@
   <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/GcOps/项目检查&PR会登记表.xlsx
+++ b/GcOps/项目检查&PR会登记表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>项目检查情况登记表</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>李秀光</t>
+  </si>
+  <si>
+    <t>保亭天艺精品酒店</t>
+  </si>
+  <si>
+    <t>王雷</t>
   </si>
   <si>
     <t>项目复盘【PR】登记表</t>
@@ -176,9 +182,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -215,7 +221,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,9 +236,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,33 +256,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,8 +271,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -303,9 +294,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,16 +333,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,22 +363,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -379,42 +385,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -427,37 +541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,43 +553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,48 +566,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,26 +651,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,16 +672,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,19 +704,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,10 +756,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -765,130 +771,130 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1445,7 +1451,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1627,13 +1633,23 @@
       <c r="I7" s="32"/>
     </row>
     <row r="8" ht="18.75" spans="1:9">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="23">
+        <v>42838</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>32</v>
+      </c>
       <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="G8" s="33" t="s">
+        <v>27</v>
+      </c>
       <c r="H8" s="34"/>
       <c r="I8" s="32"/>
     </row>
@@ -2382,10 +2398,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>"标准版,商务版,快捷版"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
       <formula1>"优秀,合格,不合格"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2418,7 +2434,7 @@
   <sheetData>
     <row r="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -2429,25 +2445,25 @@
     </row>
     <row r="2" customFormat="1" ht="19.5" spans="1:7">
       <c r="A2" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="42" customHeight="1" spans="1:7">
@@ -2461,7 +2477,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -2472,20 +2488,20 @@
         <v>42831</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="82" customHeight="1" spans="1:7">
@@ -2493,20 +2509,20 @@
         <v>42831</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="18.75" spans="1:7">

--- a/GcOps/项目检查&PR会登记表.xlsx
+++ b/GcOps/项目检查&PR会登记表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>项目检查情况登记表</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>保亭天艺精品酒店</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
   <si>
     <t>王雷</t>
@@ -180,11 +183,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -227,16 +230,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,17 +261,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,8 +281,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,69 +361,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,187 +388,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,17 +656,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -686,6 +678,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -697,30 +698,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,6 +725,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -756,10 +759,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -768,133 +771,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1449,9 +1452,9 @@
   <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1611,7 +1614,7 @@
     </row>
     <row r="7" ht="18.75" spans="1:9">
       <c r="A7" s="23">
-        <v>42837</v>
+        <v>42839</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>28</v>
@@ -1627,28 +1630,32 @@
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="33" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H7" s="34"/>
       <c r="I7" s="32"/>
     </row>
     <row r="8" ht="18.75" spans="1:9">
       <c r="A8" s="23">
-        <v>42838</v>
+        <v>42839</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>32</v>
+      </c>
       <c r="D8" s="25" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="32"/>
+        <v>33</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>19</v>
+      </c>
       <c r="G8" s="33" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="32"/>
@@ -2398,10 +2405,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>"标准版,商务版,快捷版"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
       <formula1>"优秀,合格,不合格"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2434,7 +2441,7 @@
   <sheetData>
     <row r="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -2445,25 +2452,25 @@
     </row>
     <row r="2" customFormat="1" ht="19.5" spans="1:7">
       <c r="A2" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="42" customHeight="1" spans="1:7">
@@ -2477,7 +2484,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -2488,20 +2495,20 @@
         <v>42831</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="82" customHeight="1" spans="1:7">
@@ -2509,20 +2516,20 @@
         <v>42831</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="18.75" spans="1:7">

--- a/GcOps/项目检查&PR会登记表.xlsx
+++ b/GcOps/项目检查&PR会登记表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目检查" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>项目检查情况登记表</t>
   </si>
@@ -41,6 +41,9 @@
     <t>检查结果</t>
   </si>
   <si>
+    <t>首次检查</t>
+  </si>
+  <si>
     <t>工分</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
     <t>李铭</t>
   </si>
   <si>
+    <t>不合格</t>
+  </si>
+  <si>
     <t>厦门悦来酒店</t>
   </si>
   <si>
@@ -98,9 +104,6 @@
     <t>黄超元</t>
   </si>
   <si>
-    <t>不合格</t>
-  </si>
-  <si>
     <t>海口兴泰粤海酒店【皓谷联盟酒店】</t>
   </si>
   <si>
@@ -117,6 +120,21 @@
   </si>
   <si>
     <t>王雷</t>
+  </si>
+  <si>
+    <t>爱必侬太湖会精选度假村</t>
+  </si>
+  <si>
+    <t>陈其丰</t>
+  </si>
+  <si>
+    <t>上海东方酒楼</t>
+  </si>
+  <si>
+    <t>兰伟平</t>
+  </si>
+  <si>
+    <t>郭和生</t>
   </si>
   <si>
     <t>项目复盘【PR】登记表</t>
@@ -230,11 +248,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,13 +272,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -261,16 +279,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,7 +309,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,45 +325,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,9 +346,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,7 +406,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,7 +520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,79 +532,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,13 +568,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,61 +586,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,6 +672,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -678,15 +720,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -704,24 +737,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,17 +769,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -759,10 +777,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,133 +789,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1449,12 +1467,12 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1466,11 +1484,11 @@
     <col min="5" max="5" width="15.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="28" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="29" customWidth="1"/>
-    <col min="9" max="9" width="21.875" customWidth="1"/>
+    <col min="8" max="9" width="11.375" style="29" customWidth="1"/>
+    <col min="10" max="10" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40" customHeight="1" spans="1:9">
+    <row r="1" ht="40" customHeight="1" spans="1:10">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1481,9 +1499,10 @@
       <c r="F1" s="9"/>
       <c r="G1" s="30"/>
       <c r="H1" s="31"/>
-      <c r="I1" s="35"/>
-    </row>
-    <row r="2" ht="19.5" spans="1:9">
+      <c r="I1" s="31"/>
+      <c r="J1" s="35"/>
+    </row>
+    <row r="2" ht="19.5" spans="1:10">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -1511,178 +1530,225 @@
       <c r="I2" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" ht="18.75" spans="1:9">
+      <c r="J2" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" spans="1:10">
       <c r="A3" s="23">
         <v>42830</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="34"/>
-      <c r="I3" s="32"/>
-    </row>
-    <row r="4" ht="18.75" spans="1:9">
+      <c r="I3" s="34"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" ht="18.75" spans="1:10">
       <c r="A4" s="23">
         <v>42831</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>15</v>
-      </c>
       <c r="H4" s="34"/>
-      <c r="I4" s="32"/>
-    </row>
-    <row r="5" ht="18.75" spans="1:9">
+      <c r="I4" s="34"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" ht="18.75" spans="1:10">
       <c r="A5" s="23">
         <v>42837</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="32"/>
-    </row>
-    <row r="6" ht="18.75" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="34"/>
+      <c r="J5" s="32"/>
+    </row>
+    <row r="6" ht="18.75" spans="1:10">
       <c r="A6" s="23">
         <v>42837</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="32"/>
-    </row>
-    <row r="7" ht="18.75" spans="1:9">
+      <c r="H6" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="34"/>
+      <c r="J6" s="32"/>
+    </row>
+    <row r="7" ht="18.75" spans="1:10">
       <c r="A7" s="23">
         <v>42839</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="32"/>
-    </row>
-    <row r="8" ht="18.75" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="34"/>
+      <c r="J7" s="32"/>
+    </row>
+    <row r="8" ht="18.75" spans="1:10">
       <c r="A8" s="23">
         <v>42839</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="32"/>
+    </row>
+    <row r="9" ht="18.75" spans="1:10">
+      <c r="A9" s="23">
+        <v>42843</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="D9" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="32"/>
-    </row>
-    <row r="9" ht="18.75" spans="1:9">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="F9" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>16</v>
+      </c>
       <c r="H9" s="34"/>
-      <c r="I9" s="32"/>
-    </row>
-    <row r="10" ht="18.75" spans="1:9">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="32"/>
-    </row>
-    <row r="11" ht="18.75" spans="1:9">
+      <c r="I9" s="34"/>
+      <c r="J9" s="32"/>
+    </row>
+    <row r="10" ht="18.75" spans="1:10">
+      <c r="A10" s="23">
+        <v>42843</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="34"/>
+      <c r="J10" s="32"/>
+    </row>
+    <row r="11" ht="18.75" spans="1:10">
       <c r="A11" s="23"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
@@ -1691,9 +1757,10 @@
       <c r="F11" s="32"/>
       <c r="G11" s="33"/>
       <c r="H11" s="34"/>
-      <c r="I11" s="32"/>
-    </row>
-    <row r="12" ht="18.75" spans="1:9">
+      <c r="I11" s="34"/>
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" ht="18.75" spans="1:10">
       <c r="A12" s="23"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
@@ -1702,9 +1769,10 @@
       <c r="F12" s="32"/>
       <c r="G12" s="33"/>
       <c r="H12" s="34"/>
-      <c r="I12" s="32"/>
-    </row>
-    <row r="13" ht="18.75" spans="1:9">
+      <c r="I12" s="34"/>
+      <c r="J12" s="32"/>
+    </row>
+    <row r="13" ht="18.75" spans="1:10">
       <c r="A13" s="23"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
@@ -1713,9 +1781,10 @@
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="34"/>
-      <c r="I13" s="32"/>
-    </row>
-    <row r="14" ht="18.75" spans="1:9">
+      <c r="I13" s="34"/>
+      <c r="J13" s="32"/>
+    </row>
+    <row r="14" ht="18.75" spans="1:10">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
       <c r="C14" s="25"/>
@@ -1724,9 +1793,10 @@
       <c r="F14" s="32"/>
       <c r="G14" s="33"/>
       <c r="H14" s="34"/>
-      <c r="I14" s="32"/>
-    </row>
-    <row r="15" ht="18.75" spans="1:9">
+      <c r="I14" s="34"/>
+      <c r="J14" s="32"/>
+    </row>
+    <row r="15" ht="18.75" spans="1:10">
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
       <c r="C15" s="25"/>
@@ -1735,9 +1805,10 @@
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="34"/>
-      <c r="I15" s="32"/>
-    </row>
-    <row r="16" ht="18.75" spans="1:9">
+      <c r="I15" s="34"/>
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" ht="18.75" spans="1:10">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
@@ -1746,9 +1817,10 @@
       <c r="F16" s="32"/>
       <c r="G16" s="33"/>
       <c r="H16" s="34"/>
-      <c r="I16" s="32"/>
-    </row>
-    <row r="17" ht="18.75" spans="1:9">
+      <c r="I16" s="34"/>
+      <c r="J16" s="32"/>
+    </row>
+    <row r="17" ht="18.75" spans="1:10">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -1757,9 +1829,10 @@
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
       <c r="H17" s="34"/>
-      <c r="I17" s="32"/>
-    </row>
-    <row r="18" ht="18.75" spans="1:9">
+      <c r="I17" s="34"/>
+      <c r="J17" s="32"/>
+    </row>
+    <row r="18" ht="18.75" spans="1:10">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
@@ -1768,9 +1841,10 @@
       <c r="F18" s="32"/>
       <c r="G18" s="33"/>
       <c r="H18" s="34"/>
-      <c r="I18" s="32"/>
-    </row>
-    <row r="19" ht="18.75" spans="1:9">
+      <c r="I18" s="34"/>
+      <c r="J18" s="32"/>
+    </row>
+    <row r="19" ht="18.75" spans="1:10">
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
@@ -1779,9 +1853,10 @@
       <c r="F19" s="32"/>
       <c r="G19" s="33"/>
       <c r="H19" s="34"/>
-      <c r="I19" s="32"/>
-    </row>
-    <row r="20" ht="18.75" spans="1:9">
+      <c r="I19" s="34"/>
+      <c r="J19" s="32"/>
+    </row>
+    <row r="20" ht="18.75" spans="1:10">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
@@ -1790,9 +1865,10 @@
       <c r="F20" s="32"/>
       <c r="G20" s="33"/>
       <c r="H20" s="34"/>
-      <c r="I20" s="32"/>
-    </row>
-    <row r="21" ht="18.75" spans="1:9">
+      <c r="I20" s="34"/>
+      <c r="J20" s="32"/>
+    </row>
+    <row r="21" ht="18.75" spans="1:10">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
       <c r="C21" s="25"/>
@@ -1801,9 +1877,10 @@
       <c r="F21" s="32"/>
       <c r="G21" s="33"/>
       <c r="H21" s="34"/>
-      <c r="I21" s="32"/>
-    </row>
-    <row r="22" ht="18.75" spans="1:9">
+      <c r="I21" s="34"/>
+      <c r="J21" s="32"/>
+    </row>
+    <row r="22" ht="18.75" spans="1:10">
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
       <c r="C22" s="25"/>
@@ -1812,9 +1889,10 @@
       <c r="F22" s="32"/>
       <c r="G22" s="33"/>
       <c r="H22" s="34"/>
-      <c r="I22" s="32"/>
-    </row>
-    <row r="23" ht="18.75" spans="1:9">
+      <c r="I22" s="34"/>
+      <c r="J22" s="32"/>
+    </row>
+    <row r="23" ht="18.75" spans="1:10">
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
@@ -1823,9 +1901,10 @@
       <c r="F23" s="32"/>
       <c r="G23" s="33"/>
       <c r="H23" s="34"/>
-      <c r="I23" s="32"/>
-    </row>
-    <row r="24" ht="18.75" spans="1:9">
+      <c r="I23" s="34"/>
+      <c r="J23" s="32"/>
+    </row>
+    <row r="24" ht="18.75" spans="1:10">
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
@@ -1834,9 +1913,10 @@
       <c r="F24" s="32"/>
       <c r="G24" s="33"/>
       <c r="H24" s="34"/>
-      <c r="I24" s="32"/>
-    </row>
-    <row r="25" ht="18.75" spans="1:9">
+      <c r="I24" s="34"/>
+      <c r="J24" s="32"/>
+    </row>
+    <row r="25" ht="18.75" spans="1:10">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25" s="25"/>
@@ -1845,9 +1925,10 @@
       <c r="F25" s="32"/>
       <c r="G25" s="33"/>
       <c r="H25" s="34"/>
-      <c r="I25" s="32"/>
-    </row>
-    <row r="26" ht="18.75" spans="1:9">
+      <c r="I25" s="34"/>
+      <c r="J25" s="32"/>
+    </row>
+    <row r="26" ht="18.75" spans="1:10">
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
       <c r="C26" s="25"/>
@@ -1856,9 +1937,10 @@
       <c r="F26" s="32"/>
       <c r="G26" s="33"/>
       <c r="H26" s="34"/>
-      <c r="I26" s="32"/>
-    </row>
-    <row r="27" ht="18.75" spans="1:9">
+      <c r="I26" s="34"/>
+      <c r="J26" s="32"/>
+    </row>
+    <row r="27" ht="18.75" spans="1:10">
       <c r="A27" s="23"/>
       <c r="B27" s="24"/>
       <c r="C27" s="25"/>
@@ -1867,9 +1949,10 @@
       <c r="F27" s="32"/>
       <c r="G27" s="33"/>
       <c r="H27" s="34"/>
-      <c r="I27" s="32"/>
-    </row>
-    <row r="28" ht="18.75" spans="1:9">
+      <c r="I27" s="34"/>
+      <c r="J27" s="32"/>
+    </row>
+    <row r="28" ht="18.75" spans="1:10">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
@@ -1878,9 +1961,10 @@
       <c r="F28" s="32"/>
       <c r="G28" s="33"/>
       <c r="H28" s="34"/>
-      <c r="I28" s="32"/>
-    </row>
-    <row r="29" ht="18.75" spans="1:9">
+      <c r="I28" s="34"/>
+      <c r="J28" s="32"/>
+    </row>
+    <row r="29" ht="18.75" spans="1:10">
       <c r="A29" s="23"/>
       <c r="B29" s="24"/>
       <c r="C29" s="25"/>
@@ -1889,9 +1973,10 @@
       <c r="F29" s="32"/>
       <c r="G29" s="33"/>
       <c r="H29" s="34"/>
-      <c r="I29" s="32"/>
-    </row>
-    <row r="30" ht="18.75" spans="1:9">
+      <c r="I29" s="34"/>
+      <c r="J29" s="32"/>
+    </row>
+    <row r="30" ht="18.75" spans="1:10">
       <c r="A30" s="23"/>
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
@@ -1900,9 +1985,10 @@
       <c r="F30" s="32"/>
       <c r="G30" s="33"/>
       <c r="H30" s="34"/>
-      <c r="I30" s="32"/>
-    </row>
-    <row r="31" ht="18.75" spans="1:9">
+      <c r="I30" s="34"/>
+      <c r="J30" s="32"/>
+    </row>
+    <row r="31" ht="18.75" spans="1:10">
       <c r="A31" s="23"/>
       <c r="B31" s="24"/>
       <c r="C31" s="25"/>
@@ -1911,9 +1997,10 @@
       <c r="F31" s="32"/>
       <c r="G31" s="33"/>
       <c r="H31" s="34"/>
-      <c r="I31" s="32"/>
-    </row>
-    <row r="32" ht="18.75" spans="1:9">
+      <c r="I31" s="34"/>
+      <c r="J31" s="32"/>
+    </row>
+    <row r="32" ht="18.75" spans="1:10">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="25"/>
@@ -1922,9 +2009,10 @@
       <c r="F32" s="32"/>
       <c r="G32" s="33"/>
       <c r="H32" s="34"/>
-      <c r="I32" s="32"/>
-    </row>
-    <row r="33" ht="18.75" spans="1:9">
+      <c r="I32" s="34"/>
+      <c r="J32" s="32"/>
+    </row>
+    <row r="33" ht="18.75" spans="1:10">
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
@@ -1933,9 +2021,10 @@
       <c r="F33" s="32"/>
       <c r="G33" s="33"/>
       <c r="H33" s="34"/>
-      <c r="I33" s="32"/>
-    </row>
-    <row r="34" ht="18.75" spans="1:9">
+      <c r="I33" s="34"/>
+      <c r="J33" s="32"/>
+    </row>
+    <row r="34" ht="18.75" spans="1:10">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
@@ -1944,9 +2033,10 @@
       <c r="F34" s="32"/>
       <c r="G34" s="33"/>
       <c r="H34" s="34"/>
-      <c r="I34" s="32"/>
-    </row>
-    <row r="35" ht="18.75" spans="1:9">
+      <c r="I34" s="34"/>
+      <c r="J34" s="32"/>
+    </row>
+    <row r="35" ht="18.75" spans="1:10">
       <c r="A35" s="23"/>
       <c r="B35" s="24"/>
       <c r="C35" s="25"/>
@@ -1955,9 +2045,10 @@
       <c r="F35" s="32"/>
       <c r="G35" s="33"/>
       <c r="H35" s="34"/>
-      <c r="I35" s="32"/>
-    </row>
-    <row r="36" ht="18.75" spans="1:9">
+      <c r="I35" s="34"/>
+      <c r="J35" s="32"/>
+    </row>
+    <row r="36" ht="18.75" spans="1:10">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="25"/>
@@ -1966,9 +2057,10 @@
       <c r="F36" s="32"/>
       <c r="G36" s="33"/>
       <c r="H36" s="34"/>
-      <c r="I36" s="32"/>
-    </row>
-    <row r="37" ht="18.75" spans="1:9">
+      <c r="I36" s="34"/>
+      <c r="J36" s="32"/>
+    </row>
+    <row r="37" ht="18.75" spans="1:10">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
@@ -1977,9 +2069,10 @@
       <c r="F37" s="32"/>
       <c r="G37" s="33"/>
       <c r="H37" s="34"/>
-      <c r="I37" s="32"/>
-    </row>
-    <row r="38" ht="18.75" spans="1:9">
+      <c r="I37" s="34"/>
+      <c r="J37" s="32"/>
+    </row>
+    <row r="38" ht="18.75" spans="1:10">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
@@ -1988,9 +2081,10 @@
       <c r="F38" s="32"/>
       <c r="G38" s="33"/>
       <c r="H38" s="34"/>
-      <c r="I38" s="32"/>
-    </row>
-    <row r="39" ht="18.75" spans="1:9">
+      <c r="I38" s="34"/>
+      <c r="J38" s="32"/>
+    </row>
+    <row r="39" ht="18.75" spans="1:10">
       <c r="A39" s="23"/>
       <c r="B39" s="24"/>
       <c r="C39" s="25"/>
@@ -1999,9 +2093,10 @@
       <c r="F39" s="32"/>
       <c r="G39" s="33"/>
       <c r="H39" s="34"/>
-      <c r="I39" s="32"/>
-    </row>
-    <row r="40" ht="18.75" spans="1:9">
+      <c r="I39" s="34"/>
+      <c r="J39" s="32"/>
+    </row>
+    <row r="40" ht="18.75" spans="1:10">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
@@ -2010,9 +2105,10 @@
       <c r="F40" s="32"/>
       <c r="G40" s="33"/>
       <c r="H40" s="34"/>
-      <c r="I40" s="32"/>
-    </row>
-    <row r="41" ht="18.75" spans="1:9">
+      <c r="I40" s="34"/>
+      <c r="J40" s="32"/>
+    </row>
+    <row r="41" ht="18.75" spans="1:10">
       <c r="A41" s="23"/>
       <c r="B41" s="24"/>
       <c r="C41" s="25"/>
@@ -2021,9 +2117,10 @@
       <c r="F41" s="32"/>
       <c r="G41" s="33"/>
       <c r="H41" s="34"/>
-      <c r="I41" s="32"/>
-    </row>
-    <row r="42" ht="18.75" spans="1:9">
+      <c r="I41" s="34"/>
+      <c r="J41" s="32"/>
+    </row>
+    <row r="42" ht="18.75" spans="1:10">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="25"/>
@@ -2032,9 +2129,10 @@
       <c r="F42" s="32"/>
       <c r="G42" s="33"/>
       <c r="H42" s="34"/>
-      <c r="I42" s="32"/>
-    </row>
-    <row r="43" ht="18.75" spans="1:9">
+      <c r="I42" s="34"/>
+      <c r="J42" s="32"/>
+    </row>
+    <row r="43" ht="18.75" spans="1:10">
       <c r="A43" s="23"/>
       <c r="B43" s="24"/>
       <c r="C43" s="25"/>
@@ -2043,9 +2141,10 @@
       <c r="F43" s="32"/>
       <c r="G43" s="33"/>
       <c r="H43" s="34"/>
-      <c r="I43" s="32"/>
-    </row>
-    <row r="44" ht="18.75" spans="1:9">
+      <c r="I43" s="34"/>
+      <c r="J43" s="32"/>
+    </row>
+    <row r="44" ht="18.75" spans="1:10">
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="25"/>
@@ -2054,9 +2153,10 @@
       <c r="F44" s="32"/>
       <c r="G44" s="33"/>
       <c r="H44" s="34"/>
-      <c r="I44" s="32"/>
-    </row>
-    <row r="45" ht="18.75" spans="1:9">
+      <c r="I44" s="34"/>
+      <c r="J44" s="32"/>
+    </row>
+    <row r="45" ht="18.75" spans="1:10">
       <c r="A45" s="23"/>
       <c r="B45" s="24"/>
       <c r="C45" s="25"/>
@@ -2065,9 +2165,10 @@
       <c r="F45" s="32"/>
       <c r="G45" s="33"/>
       <c r="H45" s="34"/>
-      <c r="I45" s="32"/>
-    </row>
-    <row r="46" ht="18.75" spans="1:9">
+      <c r="I45" s="34"/>
+      <c r="J45" s="32"/>
+    </row>
+    <row r="46" ht="18.75" spans="1:10">
       <c r="A46" s="23"/>
       <c r="B46" s="24"/>
       <c r="C46" s="25"/>
@@ -2076,9 +2177,10 @@
       <c r="F46" s="32"/>
       <c r="G46" s="33"/>
       <c r="H46" s="34"/>
-      <c r="I46" s="32"/>
-    </row>
-    <row r="47" ht="18.75" spans="1:9">
+      <c r="I46" s="34"/>
+      <c r="J46" s="32"/>
+    </row>
+    <row r="47" ht="18.75" spans="1:10">
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
       <c r="C47" s="25"/>
@@ -2087,9 +2189,10 @@
       <c r="F47" s="32"/>
       <c r="G47" s="33"/>
       <c r="H47" s="34"/>
-      <c r="I47" s="32"/>
-    </row>
-    <row r="48" ht="18.75" spans="1:9">
+      <c r="I47" s="34"/>
+      <c r="J47" s="32"/>
+    </row>
+    <row r="48" ht="18.75" spans="1:10">
       <c r="A48" s="23"/>
       <c r="B48" s="24"/>
       <c r="C48" s="25"/>
@@ -2098,9 +2201,10 @@
       <c r="F48" s="32"/>
       <c r="G48" s="33"/>
       <c r="H48" s="34"/>
-      <c r="I48" s="32"/>
-    </row>
-    <row r="49" ht="18.75" spans="1:9">
+      <c r="I48" s="34"/>
+      <c r="J48" s="32"/>
+    </row>
+    <row r="49" ht="18.75" spans="1:10">
       <c r="A49" s="23"/>
       <c r="B49" s="24"/>
       <c r="C49" s="25"/>
@@ -2109,9 +2213,10 @@
       <c r="F49" s="32"/>
       <c r="G49" s="33"/>
       <c r="H49" s="34"/>
-      <c r="I49" s="32"/>
-    </row>
-    <row r="50" ht="18.75" spans="1:9">
+      <c r="I49" s="34"/>
+      <c r="J49" s="32"/>
+    </row>
+    <row r="50" ht="18.75" spans="1:10">
       <c r="A50" s="23"/>
       <c r="B50" s="24"/>
       <c r="C50" s="25"/>
@@ -2120,9 +2225,10 @@
       <c r="F50" s="32"/>
       <c r="G50" s="33"/>
       <c r="H50" s="34"/>
-      <c r="I50" s="32"/>
-    </row>
-    <row r="51" ht="18.75" spans="1:9">
+      <c r="I50" s="34"/>
+      <c r="J50" s="32"/>
+    </row>
+    <row r="51" ht="18.75" spans="1:10">
       <c r="A51" s="23"/>
       <c r="B51" s="24"/>
       <c r="C51" s="25"/>
@@ -2131,9 +2237,10 @@
       <c r="F51" s="32"/>
       <c r="G51" s="33"/>
       <c r="H51" s="34"/>
-      <c r="I51" s="32"/>
-    </row>
-    <row r="52" ht="18.75" spans="1:9">
+      <c r="I51" s="34"/>
+      <c r="J51" s="32"/>
+    </row>
+    <row r="52" ht="18.75" spans="1:10">
       <c r="A52" s="23"/>
       <c r="B52" s="24"/>
       <c r="C52" s="25"/>
@@ -2142,9 +2249,10 @@
       <c r="F52" s="32"/>
       <c r="G52" s="33"/>
       <c r="H52" s="34"/>
-      <c r="I52" s="32"/>
-    </row>
-    <row r="53" ht="18.75" spans="1:9">
+      <c r="I52" s="34"/>
+      <c r="J52" s="32"/>
+    </row>
+    <row r="53" ht="18.75" spans="1:10">
       <c r="A53" s="23"/>
       <c r="B53" s="24"/>
       <c r="C53" s="25"/>
@@ -2153,9 +2261,10 @@
       <c r="F53" s="32"/>
       <c r="G53" s="33"/>
       <c r="H53" s="34"/>
-      <c r="I53" s="32"/>
-    </row>
-    <row r="54" ht="18.75" spans="1:9">
+      <c r="I53" s="34"/>
+      <c r="J53" s="32"/>
+    </row>
+    <row r="54" ht="18.75" spans="1:10">
       <c r="A54" s="23"/>
       <c r="B54" s="24"/>
       <c r="C54" s="25"/>
@@ -2164,9 +2273,10 @@
       <c r="F54" s="32"/>
       <c r="G54" s="33"/>
       <c r="H54" s="34"/>
-      <c r="I54" s="32"/>
-    </row>
-    <row r="55" ht="18.75" spans="1:9">
+      <c r="I54" s="34"/>
+      <c r="J54" s="32"/>
+    </row>
+    <row r="55" ht="18.75" spans="1:10">
       <c r="A55" s="23"/>
       <c r="B55" s="24"/>
       <c r="C55" s="25"/>
@@ -2175,9 +2285,10 @@
       <c r="F55" s="32"/>
       <c r="G55" s="33"/>
       <c r="H55" s="34"/>
-      <c r="I55" s="32"/>
-    </row>
-    <row r="56" ht="18.75" spans="1:9">
+      <c r="I55" s="34"/>
+      <c r="J55" s="32"/>
+    </row>
+    <row r="56" ht="18.75" spans="1:10">
       <c r="A56" s="23"/>
       <c r="B56" s="24"/>
       <c r="C56" s="25"/>
@@ -2186,9 +2297,10 @@
       <c r="F56" s="32"/>
       <c r="G56" s="33"/>
       <c r="H56" s="34"/>
-      <c r="I56" s="32"/>
-    </row>
-    <row r="57" ht="18.75" spans="1:9">
+      <c r="I56" s="34"/>
+      <c r="J56" s="32"/>
+    </row>
+    <row r="57" ht="18.75" spans="1:10">
       <c r="A57" s="23"/>
       <c r="B57" s="24"/>
       <c r="C57" s="25"/>
@@ -2197,9 +2309,10 @@
       <c r="F57" s="32"/>
       <c r="G57" s="33"/>
       <c r="H57" s="34"/>
-      <c r="I57" s="32"/>
-    </row>
-    <row r="58" ht="18.75" spans="1:9">
+      <c r="I57" s="34"/>
+      <c r="J57" s="32"/>
+    </row>
+    <row r="58" ht="18.75" spans="1:10">
       <c r="A58" s="23"/>
       <c r="B58" s="24"/>
       <c r="C58" s="25"/>
@@ -2208,9 +2321,10 @@
       <c r="F58" s="32"/>
       <c r="G58" s="33"/>
       <c r="H58" s="34"/>
-      <c r="I58" s="32"/>
-    </row>
-    <row r="59" ht="18.75" spans="1:9">
+      <c r="I58" s="34"/>
+      <c r="J58" s="32"/>
+    </row>
+    <row r="59" ht="18.75" spans="1:10">
       <c r="A59" s="23"/>
       <c r="B59" s="24"/>
       <c r="C59" s="25"/>
@@ -2219,9 +2333,10 @@
       <c r="F59" s="32"/>
       <c r="G59" s="33"/>
       <c r="H59" s="34"/>
-      <c r="I59" s="32"/>
-    </row>
-    <row r="60" ht="18.75" spans="1:9">
+      <c r="I59" s="34"/>
+      <c r="J59" s="32"/>
+    </row>
+    <row r="60" ht="18.75" spans="1:10">
       <c r="A60" s="23"/>
       <c r="B60" s="24"/>
       <c r="C60" s="25"/>
@@ -2230,9 +2345,10 @@
       <c r="F60" s="32"/>
       <c r="G60" s="33"/>
       <c r="H60" s="34"/>
-      <c r="I60" s="32"/>
-    </row>
-    <row r="61" ht="18.75" spans="1:9">
+      <c r="I60" s="34"/>
+      <c r="J60" s="32"/>
+    </row>
+    <row r="61" ht="18.75" spans="1:10">
       <c r="A61" s="23"/>
       <c r="B61" s="24"/>
       <c r="C61" s="25"/>
@@ -2241,9 +2357,10 @@
       <c r="F61" s="32"/>
       <c r="G61" s="33"/>
       <c r="H61" s="34"/>
-      <c r="I61" s="32"/>
-    </row>
-    <row r="62" ht="18.75" spans="1:9">
+      <c r="I61" s="34"/>
+      <c r="J61" s="32"/>
+    </row>
+    <row r="62" ht="18.75" spans="1:10">
       <c r="A62" s="23"/>
       <c r="B62" s="24"/>
       <c r="C62" s="25"/>
@@ -2252,9 +2369,10 @@
       <c r="F62" s="32"/>
       <c r="G62" s="33"/>
       <c r="H62" s="34"/>
-      <c r="I62" s="32"/>
-    </row>
-    <row r="63" ht="18.75" spans="1:9">
+      <c r="I62" s="34"/>
+      <c r="J62" s="32"/>
+    </row>
+    <row r="63" ht="18.75" spans="1:10">
       <c r="A63" s="23"/>
       <c r="B63" s="24"/>
       <c r="C63" s="25"/>
@@ -2263,9 +2381,10 @@
       <c r="F63" s="32"/>
       <c r="G63" s="33"/>
       <c r="H63" s="34"/>
-      <c r="I63" s="32"/>
-    </row>
-    <row r="64" ht="18.75" spans="1:9">
+      <c r="I63" s="34"/>
+      <c r="J63" s="32"/>
+    </row>
+    <row r="64" ht="18.75" spans="1:10">
       <c r="A64" s="23"/>
       <c r="B64" s="24"/>
       <c r="C64" s="25"/>
@@ -2274,9 +2393,10 @@
       <c r="F64" s="32"/>
       <c r="G64" s="33"/>
       <c r="H64" s="34"/>
-      <c r="I64" s="32"/>
-    </row>
-    <row r="65" ht="18.75" spans="1:9">
+      <c r="I64" s="34"/>
+      <c r="J64" s="32"/>
+    </row>
+    <row r="65" ht="18.75" spans="1:10">
       <c r="A65" s="23"/>
       <c r="B65" s="24"/>
       <c r="C65" s="25"/>
@@ -2285,9 +2405,10 @@
       <c r="F65" s="32"/>
       <c r="G65" s="33"/>
       <c r="H65" s="34"/>
-      <c r="I65" s="32"/>
-    </row>
-    <row r="66" ht="18.75" spans="1:9">
+      <c r="I65" s="34"/>
+      <c r="J65" s="32"/>
+    </row>
+    <row r="66" ht="18.75" spans="1:10">
       <c r="A66" s="23"/>
       <c r="B66" s="24"/>
       <c r="C66" s="25"/>
@@ -2296,9 +2417,10 @@
       <c r="F66" s="32"/>
       <c r="G66" s="33"/>
       <c r="H66" s="34"/>
-      <c r="I66" s="32"/>
-    </row>
-    <row r="67" ht="18.75" spans="1:9">
+      <c r="I66" s="34"/>
+      <c r="J66" s="32"/>
+    </row>
+    <row r="67" ht="18.75" spans="1:10">
       <c r="A67" s="23"/>
       <c r="B67" s="24"/>
       <c r="C67" s="25"/>
@@ -2307,9 +2429,10 @@
       <c r="F67" s="32"/>
       <c r="G67" s="33"/>
       <c r="H67" s="34"/>
-      <c r="I67" s="32"/>
-    </row>
-    <row r="68" ht="18.75" spans="1:9">
+      <c r="I67" s="34"/>
+      <c r="J67" s="32"/>
+    </row>
+    <row r="68" ht="18.75" spans="1:10">
       <c r="A68" s="23"/>
       <c r="B68" s="24"/>
       <c r="C68" s="25"/>
@@ -2318,9 +2441,10 @@
       <c r="F68" s="32"/>
       <c r="G68" s="33"/>
       <c r="H68" s="34"/>
-      <c r="I68" s="32"/>
-    </row>
-    <row r="69" ht="18.75" spans="1:9">
+      <c r="I68" s="34"/>
+      <c r="J68" s="32"/>
+    </row>
+    <row r="69" ht="18.75" spans="1:10">
       <c r="A69" s="23"/>
       <c r="B69" s="24"/>
       <c r="C69" s="25"/>
@@ -2329,9 +2453,10 @@
       <c r="F69" s="32"/>
       <c r="G69" s="33"/>
       <c r="H69" s="34"/>
-      <c r="I69" s="32"/>
-    </row>
-    <row r="70" ht="18.75" spans="1:9">
+      <c r="I69" s="34"/>
+      <c r="J69" s="32"/>
+    </row>
+    <row r="70" ht="18.75" spans="1:10">
       <c r="A70" s="23"/>
       <c r="B70" s="24"/>
       <c r="C70" s="25"/>
@@ -2340,9 +2465,10 @@
       <c r="F70" s="32"/>
       <c r="G70" s="33"/>
       <c r="H70" s="34"/>
-      <c r="I70" s="32"/>
-    </row>
-    <row r="71" ht="18.75" spans="1:9">
+      <c r="I70" s="34"/>
+      <c r="J70" s="32"/>
+    </row>
+    <row r="71" ht="18.75" spans="1:10">
       <c r="A71" s="23"/>
       <c r="B71" s="24"/>
       <c r="C71" s="25"/>
@@ -2351,9 +2477,10 @@
       <c r="F71" s="32"/>
       <c r="G71" s="33"/>
       <c r="H71" s="34"/>
-      <c r="I71" s="32"/>
-    </row>
-    <row r="72" ht="18.75" spans="1:9">
+      <c r="I71" s="34"/>
+      <c r="J71" s="32"/>
+    </row>
+    <row r="72" ht="18.75" spans="1:10">
       <c r="A72" s="23"/>
       <c r="B72" s="24"/>
       <c r="C72" s="25"/>
@@ -2362,9 +2489,10 @@
       <c r="F72" s="32"/>
       <c r="G72" s="33"/>
       <c r="H72" s="34"/>
-      <c r="I72" s="32"/>
-    </row>
-    <row r="73" ht="18.75" spans="1:9">
+      <c r="I72" s="34"/>
+      <c r="J72" s="32"/>
+    </row>
+    <row r="73" ht="18.75" spans="1:10">
       <c r="A73" s="23"/>
       <c r="B73" s="24"/>
       <c r="C73" s="25"/>
@@ -2373,9 +2501,10 @@
       <c r="F73" s="32"/>
       <c r="G73" s="33"/>
       <c r="H73" s="34"/>
-      <c r="I73" s="32"/>
-    </row>
-    <row r="74" ht="18.75" spans="1:9">
+      <c r="I73" s="34"/>
+      <c r="J73" s="32"/>
+    </row>
+    <row r="74" ht="18.75" spans="1:10">
       <c r="A74" s="23"/>
       <c r="B74" s="24"/>
       <c r="C74" s="25"/>
@@ -2384,9 +2513,10 @@
       <c r="F74" s="32"/>
       <c r="G74" s="33"/>
       <c r="H74" s="34"/>
-      <c r="I74" s="32"/>
-    </row>
-    <row r="75" ht="18.75" spans="1:9">
+      <c r="I74" s="34"/>
+      <c r="J74" s="32"/>
+    </row>
+    <row r="75" ht="18.75" spans="1:10">
       <c r="A75" s="23"/>
       <c r="B75" s="24"/>
       <c r="C75" s="25"/>
@@ -2395,20 +2525,21 @@
       <c r="F75" s="32"/>
       <c r="G75" s="33"/>
       <c r="H75" s="34"/>
-      <c r="I75" s="32"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6 H7 H10 H1:H5 H8:H9 H11:H1048576 I$1:I$1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>"标准版,商务版,快捷版"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
       <formula1>"优秀,合格,不合格"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2441,7 +2572,7 @@
   <sheetData>
     <row r="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -2452,25 +2583,25 @@
     </row>
     <row r="2" customFormat="1" ht="19.5" spans="1:7">
       <c r="A2" s="13" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="42" customHeight="1" spans="1:7">
@@ -2478,13 +2609,13 @@
         <v>42830</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -2495,20 +2626,20 @@
         <v>42831</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="82" customHeight="1" spans="1:7">
@@ -2516,20 +2647,20 @@
         <v>42831</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="20" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="18.75" spans="1:7">

--- a/GcOps/项目检查&PR会登记表.xlsx
+++ b/GcOps/项目检查&PR会登记表.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="项目检查" sheetId="1" r:id="rId1"/>
     <sheet name="项目复盘" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>项目检查情况登记表</t>
   </si>
@@ -41,6 +41,9 @@
     <t>检查结果</t>
   </si>
   <si>
+    <t>再查日期</t>
+  </si>
+  <si>
     <t>首次检查</t>
   </si>
   <si>
@@ -135,6 +138,15 @@
   </si>
   <si>
     <t>郭和生</t>
+  </si>
+  <si>
+    <t>景澜·翰林山居</t>
+  </si>
+  <si>
+    <t>汪康</t>
+  </si>
+  <si>
+    <t>林李纲</t>
   </si>
   <si>
     <t>项目复盘【PR】登记表</t>
@@ -201,10 +213,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
   </numFmts>
   <fonts count="24">
@@ -242,6 +254,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -249,7 +268,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,6 +277,37 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,14 +322,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,85 +391,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,7 +418,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,19 +520,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,31 +574,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,115 +592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,6 +684,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -683,39 +710,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,6 +729,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -749,23 +758,26 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,10 +789,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -789,137 +801,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1023,6 +1035,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1467,12 +1482,12 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1484,11 +1499,12 @@
     <col min="5" max="5" width="15.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="28" customWidth="1"/>
-    <col min="8" max="9" width="11.375" style="29" customWidth="1"/>
-    <col min="10" max="10" width="21.875" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="29" customWidth="1"/>
+    <col min="9" max="10" width="11.375" style="29" customWidth="1"/>
+    <col min="11" max="11" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40" customHeight="1" spans="1:10">
+    <row r="1" ht="40" customHeight="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1500,9 +1516,10 @@
       <c r="G1" s="30"/>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
-      <c r="J1" s="35"/>
-    </row>
-    <row r="2" ht="19.5" spans="1:10">
+      <c r="J1" s="31"/>
+      <c r="K1" s="36"/>
+    </row>
+    <row r="2" ht="19.5" spans="1:11">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -1533,234 +1550,262 @@
       <c r="J2" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" ht="18.75" spans="1:10">
+      <c r="K2" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" spans="1:11">
       <c r="A3" s="23">
         <v>42830</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="34"/>
       <c r="I3" s="34"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" ht="18.75" spans="1:10">
+      <c r="J3" s="34"/>
+      <c r="K3" s="32"/>
+    </row>
+    <row r="4" ht="18.75" spans="1:11">
       <c r="A4" s="23">
         <v>42831</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="33" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>16</v>
       </c>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" ht="18.75" spans="1:10">
+      <c r="J4" s="34"/>
+      <c r="K4" s="32"/>
+    </row>
+    <row r="5" ht="18.75" spans="1:11">
       <c r="A5" s="23">
         <v>42837</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" ht="18.75" spans="1:10">
+        <v>17</v>
+      </c>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="34"/>
+      <c r="K5" s="32"/>
+    </row>
+    <row r="6" ht="18.75" spans="1:11">
       <c r="A6" s="23">
         <v>42837</v>
       </c>
       <c r="B6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="35">
+        <v>42851</v>
+      </c>
+      <c r="I6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="32"/>
-    </row>
-    <row r="7" ht="18.75" spans="1:10">
+      <c r="J6" s="34"/>
+      <c r="K6" s="32"/>
+    </row>
+    <row r="7" ht="18.75" spans="1:11">
       <c r="A7" s="23">
         <v>42839</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" ht="18.75" spans="1:10">
+        <v>17</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="K7" s="32"/>
+    </row>
+    <row r="8" ht="18.75" spans="1:11">
       <c r="A8" s="23">
         <v>42839</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
-      <c r="J8" s="32"/>
-    </row>
-    <row r="9" ht="18.75" spans="1:10">
+      <c r="J8" s="34"/>
+      <c r="K8" s="32"/>
+    </row>
+    <row r="9" ht="18.75" spans="1:11">
       <c r="A9" s="23">
         <v>42843</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
-      <c r="J9" s="32"/>
-    </row>
-    <row r="10" ht="18.75" spans="1:10">
+      <c r="J9" s="34"/>
+      <c r="K9" s="32"/>
+    </row>
+    <row r="10" ht="18.75" spans="1:11">
       <c r="A10" s="23">
         <v>42843</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="32"/>
-    </row>
-    <row r="11" ht="18.75" spans="1:10">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
+        <v>26</v>
+      </c>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="34"/>
+      <c r="K10" s="32"/>
+    </row>
+    <row r="11" ht="18.75" spans="1:11">
+      <c r="A11" s="23">
+        <v>42851</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
-      <c r="J11" s="32"/>
-    </row>
-    <row r="12" ht="18.75" spans="1:10">
+      <c r="J11" s="34"/>
+      <c r="K11" s="32"/>
+    </row>
+    <row r="12" ht="18.75" spans="1:11">
       <c r="A12" s="23"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
@@ -1770,9 +1815,10 @@
       <c r="G12" s="33"/>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
-      <c r="J12" s="32"/>
-    </row>
-    <row r="13" ht="18.75" spans="1:10">
+      <c r="J12" s="34"/>
+      <c r="K12" s="32"/>
+    </row>
+    <row r="13" ht="18.75" spans="1:11">
       <c r="A13" s="23"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
@@ -1782,9 +1828,10 @@
       <c r="G13" s="33"/>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
-      <c r="J13" s="32"/>
-    </row>
-    <row r="14" ht="18.75" spans="1:10">
+      <c r="J13" s="34"/>
+      <c r="K13" s="32"/>
+    </row>
+    <row r="14" ht="18.75" spans="1:11">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
       <c r="C14" s="25"/>
@@ -1794,9 +1841,10 @@
       <c r="G14" s="33"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
-      <c r="J14" s="32"/>
-    </row>
-    <row r="15" ht="18.75" spans="1:10">
+      <c r="J14" s="34"/>
+      <c r="K14" s="32"/>
+    </row>
+    <row r="15" ht="18.75" spans="1:11">
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
       <c r="C15" s="25"/>
@@ -1806,9 +1854,10 @@
       <c r="G15" s="33"/>
       <c r="H15" s="34"/>
       <c r="I15" s="34"/>
-      <c r="J15" s="32"/>
-    </row>
-    <row r="16" ht="18.75" spans="1:10">
+      <c r="J15" s="34"/>
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" ht="18.75" spans="1:11">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
@@ -1818,9 +1867,10 @@
       <c r="G16" s="33"/>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
-      <c r="J16" s="32"/>
-    </row>
-    <row r="17" ht="18.75" spans="1:10">
+      <c r="J16" s="34"/>
+      <c r="K16" s="32"/>
+    </row>
+    <row r="17" ht="18.75" spans="1:11">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -1830,9 +1880,10 @@
       <c r="G17" s="33"/>
       <c r="H17" s="34"/>
       <c r="I17" s="34"/>
-      <c r="J17" s="32"/>
-    </row>
-    <row r="18" ht="18.75" spans="1:10">
+      <c r="J17" s="34"/>
+      <c r="K17" s="32"/>
+    </row>
+    <row r="18" ht="18.75" spans="1:11">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
@@ -1842,9 +1893,10 @@
       <c r="G18" s="33"/>
       <c r="H18" s="34"/>
       <c r="I18" s="34"/>
-      <c r="J18" s="32"/>
-    </row>
-    <row r="19" ht="18.75" spans="1:10">
+      <c r="J18" s="34"/>
+      <c r="K18" s="32"/>
+    </row>
+    <row r="19" ht="18.75" spans="1:11">
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
@@ -1854,9 +1906,10 @@
       <c r="G19" s="33"/>
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
-      <c r="J19" s="32"/>
-    </row>
-    <row r="20" ht="18.75" spans="1:10">
+      <c r="J19" s="34"/>
+      <c r="K19" s="32"/>
+    </row>
+    <row r="20" ht="18.75" spans="1:11">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
@@ -1866,9 +1919,10 @@
       <c r="G20" s="33"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
-      <c r="J20" s="32"/>
-    </row>
-    <row r="21" ht="18.75" spans="1:10">
+      <c r="J20" s="34"/>
+      <c r="K20" s="32"/>
+    </row>
+    <row r="21" ht="18.75" spans="1:11">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
       <c r="C21" s="25"/>
@@ -1878,9 +1932,10 @@
       <c r="G21" s="33"/>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
-      <c r="J21" s="32"/>
-    </row>
-    <row r="22" ht="18.75" spans="1:10">
+      <c r="J21" s="34"/>
+      <c r="K21" s="32"/>
+    </row>
+    <row r="22" ht="18.75" spans="1:11">
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
       <c r="C22" s="25"/>
@@ -1890,9 +1945,10 @@
       <c r="G22" s="33"/>
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
-      <c r="J22" s="32"/>
-    </row>
-    <row r="23" ht="18.75" spans="1:10">
+      <c r="J22" s="34"/>
+      <c r="K22" s="32"/>
+    </row>
+    <row r="23" ht="18.75" spans="1:11">
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
@@ -1902,9 +1958,10 @@
       <c r="G23" s="33"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
-      <c r="J23" s="32"/>
-    </row>
-    <row r="24" ht="18.75" spans="1:10">
+      <c r="J23" s="34"/>
+      <c r="K23" s="32"/>
+    </row>
+    <row r="24" ht="18.75" spans="1:11">
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
@@ -1914,9 +1971,10 @@
       <c r="G24" s="33"/>
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" ht="18.75" spans="1:10">
+      <c r="J24" s="34"/>
+      <c r="K24" s="32"/>
+    </row>
+    <row r="25" ht="18.75" spans="1:11">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25" s="25"/>
@@ -1926,9 +1984,10 @@
       <c r="G25" s="33"/>
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
-      <c r="J25" s="32"/>
-    </row>
-    <row r="26" ht="18.75" spans="1:10">
+      <c r="J25" s="34"/>
+      <c r="K25" s="32"/>
+    </row>
+    <row r="26" ht="18.75" spans="1:11">
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
       <c r="C26" s="25"/>
@@ -1938,9 +1997,10 @@
       <c r="G26" s="33"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
-      <c r="J26" s="32"/>
-    </row>
-    <row r="27" ht="18.75" spans="1:10">
+      <c r="J26" s="34"/>
+      <c r="K26" s="32"/>
+    </row>
+    <row r="27" ht="18.75" spans="1:11">
       <c r="A27" s="23"/>
       <c r="B27" s="24"/>
       <c r="C27" s="25"/>
@@ -1950,9 +2010,10 @@
       <c r="G27" s="33"/>
       <c r="H27" s="34"/>
       <c r="I27" s="34"/>
-      <c r="J27" s="32"/>
-    </row>
-    <row r="28" ht="18.75" spans="1:10">
+      <c r="J27" s="34"/>
+      <c r="K27" s="32"/>
+    </row>
+    <row r="28" ht="18.75" spans="1:11">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
@@ -1962,9 +2023,10 @@
       <c r="G28" s="33"/>
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
-      <c r="J28" s="32"/>
-    </row>
-    <row r="29" ht="18.75" spans="1:10">
+      <c r="J28" s="34"/>
+      <c r="K28" s="32"/>
+    </row>
+    <row r="29" ht="18.75" spans="1:11">
       <c r="A29" s="23"/>
       <c r="B29" s="24"/>
       <c r="C29" s="25"/>
@@ -1974,9 +2036,10 @@
       <c r="G29" s="33"/>
       <c r="H29" s="34"/>
       <c r="I29" s="34"/>
-      <c r="J29" s="32"/>
-    </row>
-    <row r="30" ht="18.75" spans="1:10">
+      <c r="J29" s="34"/>
+      <c r="K29" s="32"/>
+    </row>
+    <row r="30" ht="18.75" spans="1:11">
       <c r="A30" s="23"/>
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
@@ -1986,9 +2049,10 @@
       <c r="G30" s="33"/>
       <c r="H30" s="34"/>
       <c r="I30" s="34"/>
-      <c r="J30" s="32"/>
-    </row>
-    <row r="31" ht="18.75" spans="1:10">
+      <c r="J30" s="34"/>
+      <c r="K30" s="32"/>
+    </row>
+    <row r="31" ht="18.75" spans="1:11">
       <c r="A31" s="23"/>
       <c r="B31" s="24"/>
       <c r="C31" s="25"/>
@@ -1998,9 +2062,10 @@
       <c r="G31" s="33"/>
       <c r="H31" s="34"/>
       <c r="I31" s="34"/>
-      <c r="J31" s="32"/>
-    </row>
-    <row r="32" ht="18.75" spans="1:10">
+      <c r="J31" s="34"/>
+      <c r="K31" s="32"/>
+    </row>
+    <row r="32" ht="18.75" spans="1:11">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="25"/>
@@ -2010,9 +2075,10 @@
       <c r="G32" s="33"/>
       <c r="H32" s="34"/>
       <c r="I32" s="34"/>
-      <c r="J32" s="32"/>
-    </row>
-    <row r="33" ht="18.75" spans="1:10">
+      <c r="J32" s="34"/>
+      <c r="K32" s="32"/>
+    </row>
+    <row r="33" ht="18.75" spans="1:11">
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
@@ -2022,9 +2088,10 @@
       <c r="G33" s="33"/>
       <c r="H33" s="34"/>
       <c r="I33" s="34"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" ht="18.75" spans="1:10">
+      <c r="J33" s="34"/>
+      <c r="K33" s="32"/>
+    </row>
+    <row r="34" ht="18.75" spans="1:11">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
@@ -2034,9 +2101,10 @@
       <c r="G34" s="33"/>
       <c r="H34" s="34"/>
       <c r="I34" s="34"/>
-      <c r="J34" s="32"/>
-    </row>
-    <row r="35" ht="18.75" spans="1:10">
+      <c r="J34" s="34"/>
+      <c r="K34" s="32"/>
+    </row>
+    <row r="35" ht="18.75" spans="1:11">
       <c r="A35" s="23"/>
       <c r="B35" s="24"/>
       <c r="C35" s="25"/>
@@ -2046,9 +2114,10 @@
       <c r="G35" s="33"/>
       <c r="H35" s="34"/>
       <c r="I35" s="34"/>
-      <c r="J35" s="32"/>
-    </row>
-    <row r="36" ht="18.75" spans="1:10">
+      <c r="J35" s="34"/>
+      <c r="K35" s="32"/>
+    </row>
+    <row r="36" ht="18.75" spans="1:11">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="25"/>
@@ -2058,9 +2127,10 @@
       <c r="G36" s="33"/>
       <c r="H36" s="34"/>
       <c r="I36" s="34"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" ht="18.75" spans="1:10">
+      <c r="J36" s="34"/>
+      <c r="K36" s="32"/>
+    </row>
+    <row r="37" ht="18.75" spans="1:11">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
@@ -2070,9 +2140,10 @@
       <c r="G37" s="33"/>
       <c r="H37" s="34"/>
       <c r="I37" s="34"/>
-      <c r="J37" s="32"/>
-    </row>
-    <row r="38" ht="18.75" spans="1:10">
+      <c r="J37" s="34"/>
+      <c r="K37" s="32"/>
+    </row>
+    <row r="38" ht="18.75" spans="1:11">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
@@ -2082,9 +2153,10 @@
       <c r="G38" s="33"/>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
-      <c r="J38" s="32"/>
-    </row>
-    <row r="39" ht="18.75" spans="1:10">
+      <c r="J38" s="34"/>
+      <c r="K38" s="32"/>
+    </row>
+    <row r="39" ht="18.75" spans="1:11">
       <c r="A39" s="23"/>
       <c r="B39" s="24"/>
       <c r="C39" s="25"/>
@@ -2094,9 +2166,10 @@
       <c r="G39" s="33"/>
       <c r="H39" s="34"/>
       <c r="I39" s="34"/>
-      <c r="J39" s="32"/>
-    </row>
-    <row r="40" ht="18.75" spans="1:10">
+      <c r="J39" s="34"/>
+      <c r="K39" s="32"/>
+    </row>
+    <row r="40" ht="18.75" spans="1:11">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
@@ -2106,9 +2179,10 @@
       <c r="G40" s="33"/>
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
-      <c r="J40" s="32"/>
-    </row>
-    <row r="41" ht="18.75" spans="1:10">
+      <c r="J40" s="34"/>
+      <c r="K40" s="32"/>
+    </row>
+    <row r="41" ht="18.75" spans="1:11">
       <c r="A41" s="23"/>
       <c r="B41" s="24"/>
       <c r="C41" s="25"/>
@@ -2118,9 +2192,10 @@
       <c r="G41" s="33"/>
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
-      <c r="J41" s="32"/>
-    </row>
-    <row r="42" ht="18.75" spans="1:10">
+      <c r="J41" s="34"/>
+      <c r="K41" s="32"/>
+    </row>
+    <row r="42" ht="18.75" spans="1:11">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="25"/>
@@ -2130,9 +2205,10 @@
       <c r="G42" s="33"/>
       <c r="H42" s="34"/>
       <c r="I42" s="34"/>
-      <c r="J42" s="32"/>
-    </row>
-    <row r="43" ht="18.75" spans="1:10">
+      <c r="J42" s="34"/>
+      <c r="K42" s="32"/>
+    </row>
+    <row r="43" ht="18.75" spans="1:11">
       <c r="A43" s="23"/>
       <c r="B43" s="24"/>
       <c r="C43" s="25"/>
@@ -2142,9 +2218,10 @@
       <c r="G43" s="33"/>
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
-      <c r="J43" s="32"/>
-    </row>
-    <row r="44" ht="18.75" spans="1:10">
+      <c r="J43" s="34"/>
+      <c r="K43" s="32"/>
+    </row>
+    <row r="44" ht="18.75" spans="1:11">
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="25"/>
@@ -2154,9 +2231,10 @@
       <c r="G44" s="33"/>
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
-      <c r="J44" s="32"/>
-    </row>
-    <row r="45" ht="18.75" spans="1:10">
+      <c r="J44" s="34"/>
+      <c r="K44" s="32"/>
+    </row>
+    <row r="45" ht="18.75" spans="1:11">
       <c r="A45" s="23"/>
       <c r="B45" s="24"/>
       <c r="C45" s="25"/>
@@ -2166,9 +2244,10 @@
       <c r="G45" s="33"/>
       <c r="H45" s="34"/>
       <c r="I45" s="34"/>
-      <c r="J45" s="32"/>
-    </row>
-    <row r="46" ht="18.75" spans="1:10">
+      <c r="J45" s="34"/>
+      <c r="K45" s="32"/>
+    </row>
+    <row r="46" ht="18.75" spans="1:11">
       <c r="A46" s="23"/>
       <c r="B46" s="24"/>
       <c r="C46" s="25"/>
@@ -2178,9 +2257,10 @@
       <c r="G46" s="33"/>
       <c r="H46" s="34"/>
       <c r="I46" s="34"/>
-      <c r="J46" s="32"/>
-    </row>
-    <row r="47" ht="18.75" spans="1:10">
+      <c r="J46" s="34"/>
+      <c r="K46" s="32"/>
+    </row>
+    <row r="47" ht="18.75" spans="1:11">
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
       <c r="C47" s="25"/>
@@ -2190,9 +2270,10 @@
       <c r="G47" s="33"/>
       <c r="H47" s="34"/>
       <c r="I47" s="34"/>
-      <c r="J47" s="32"/>
-    </row>
-    <row r="48" ht="18.75" spans="1:10">
+      <c r="J47" s="34"/>
+      <c r="K47" s="32"/>
+    </row>
+    <row r="48" ht="18.75" spans="1:11">
       <c r="A48" s="23"/>
       <c r="B48" s="24"/>
       <c r="C48" s="25"/>
@@ -2202,9 +2283,10 @@
       <c r="G48" s="33"/>
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
-      <c r="J48" s="32"/>
-    </row>
-    <row r="49" ht="18.75" spans="1:10">
+      <c r="J48" s="34"/>
+      <c r="K48" s="32"/>
+    </row>
+    <row r="49" ht="18.75" spans="1:11">
       <c r="A49" s="23"/>
       <c r="B49" s="24"/>
       <c r="C49" s="25"/>
@@ -2214,9 +2296,10 @@
       <c r="G49" s="33"/>
       <c r="H49" s="34"/>
       <c r="I49" s="34"/>
-      <c r="J49" s="32"/>
-    </row>
-    <row r="50" ht="18.75" spans="1:10">
+      <c r="J49" s="34"/>
+      <c r="K49" s="32"/>
+    </row>
+    <row r="50" ht="18.75" spans="1:11">
       <c r="A50" s="23"/>
       <c r="B50" s="24"/>
       <c r="C50" s="25"/>
@@ -2226,9 +2309,10 @@
       <c r="G50" s="33"/>
       <c r="H50" s="34"/>
       <c r="I50" s="34"/>
-      <c r="J50" s="32"/>
-    </row>
-    <row r="51" ht="18.75" spans="1:10">
+      <c r="J50" s="34"/>
+      <c r="K50" s="32"/>
+    </row>
+    <row r="51" ht="18.75" spans="1:11">
       <c r="A51" s="23"/>
       <c r="B51" s="24"/>
       <c r="C51" s="25"/>
@@ -2238,9 +2322,10 @@
       <c r="G51" s="33"/>
       <c r="H51" s="34"/>
       <c r="I51" s="34"/>
-      <c r="J51" s="32"/>
-    </row>
-    <row r="52" ht="18.75" spans="1:10">
+      <c r="J51" s="34"/>
+      <c r="K51" s="32"/>
+    </row>
+    <row r="52" ht="18.75" spans="1:11">
       <c r="A52" s="23"/>
       <c r="B52" s="24"/>
       <c r="C52" s="25"/>
@@ -2250,9 +2335,10 @@
       <c r="G52" s="33"/>
       <c r="H52" s="34"/>
       <c r="I52" s="34"/>
-      <c r="J52" s="32"/>
-    </row>
-    <row r="53" ht="18.75" spans="1:10">
+      <c r="J52" s="34"/>
+      <c r="K52" s="32"/>
+    </row>
+    <row r="53" ht="18.75" spans="1:11">
       <c r="A53" s="23"/>
       <c r="B53" s="24"/>
       <c r="C53" s="25"/>
@@ -2262,9 +2348,10 @@
       <c r="G53" s="33"/>
       <c r="H53" s="34"/>
       <c r="I53" s="34"/>
-      <c r="J53" s="32"/>
-    </row>
-    <row r="54" ht="18.75" spans="1:10">
+      <c r="J53" s="34"/>
+      <c r="K53" s="32"/>
+    </row>
+    <row r="54" ht="18.75" spans="1:11">
       <c r="A54" s="23"/>
       <c r="B54" s="24"/>
       <c r="C54" s="25"/>
@@ -2274,9 +2361,10 @@
       <c r="G54" s="33"/>
       <c r="H54" s="34"/>
       <c r="I54" s="34"/>
-      <c r="J54" s="32"/>
-    </row>
-    <row r="55" ht="18.75" spans="1:10">
+      <c r="J54" s="34"/>
+      <c r="K54" s="32"/>
+    </row>
+    <row r="55" ht="18.75" spans="1:11">
       <c r="A55" s="23"/>
       <c r="B55" s="24"/>
       <c r="C55" s="25"/>
@@ -2286,9 +2374,10 @@
       <c r="G55" s="33"/>
       <c r="H55" s="34"/>
       <c r="I55" s="34"/>
-      <c r="J55" s="32"/>
-    </row>
-    <row r="56" ht="18.75" spans="1:10">
+      <c r="J55" s="34"/>
+      <c r="K55" s="32"/>
+    </row>
+    <row r="56" ht="18.75" spans="1:11">
       <c r="A56" s="23"/>
       <c r="B56" s="24"/>
       <c r="C56" s="25"/>
@@ -2298,9 +2387,10 @@
       <c r="G56" s="33"/>
       <c r="H56" s="34"/>
       <c r="I56" s="34"/>
-      <c r="J56" s="32"/>
-    </row>
-    <row r="57" ht="18.75" spans="1:10">
+      <c r="J56" s="34"/>
+      <c r="K56" s="32"/>
+    </row>
+    <row r="57" ht="18.75" spans="1:11">
       <c r="A57" s="23"/>
       <c r="B57" s="24"/>
       <c r="C57" s="25"/>
@@ -2310,9 +2400,10 @@
       <c r="G57" s="33"/>
       <c r="H57" s="34"/>
       <c r="I57" s="34"/>
-      <c r="J57" s="32"/>
-    </row>
-    <row r="58" ht="18.75" spans="1:10">
+      <c r="J57" s="34"/>
+      <c r="K57" s="32"/>
+    </row>
+    <row r="58" ht="18.75" spans="1:11">
       <c r="A58" s="23"/>
       <c r="B58" s="24"/>
       <c r="C58" s="25"/>
@@ -2322,9 +2413,10 @@
       <c r="G58" s="33"/>
       <c r="H58" s="34"/>
       <c r="I58" s="34"/>
-      <c r="J58" s="32"/>
-    </row>
-    <row r="59" ht="18.75" spans="1:10">
+      <c r="J58" s="34"/>
+      <c r="K58" s="32"/>
+    </row>
+    <row r="59" ht="18.75" spans="1:11">
       <c r="A59" s="23"/>
       <c r="B59" s="24"/>
       <c r="C59" s="25"/>
@@ -2334,9 +2426,10 @@
       <c r="G59" s="33"/>
       <c r="H59" s="34"/>
       <c r="I59" s="34"/>
-      <c r="J59" s="32"/>
-    </row>
-    <row r="60" ht="18.75" spans="1:10">
+      <c r="J59" s="34"/>
+      <c r="K59" s="32"/>
+    </row>
+    <row r="60" ht="18.75" spans="1:11">
       <c r="A60" s="23"/>
       <c r="B60" s="24"/>
       <c r="C60" s="25"/>
@@ -2346,9 +2439,10 @@
       <c r="G60" s="33"/>
       <c r="H60" s="34"/>
       <c r="I60" s="34"/>
-      <c r="J60" s="32"/>
-    </row>
-    <row r="61" ht="18.75" spans="1:10">
+      <c r="J60" s="34"/>
+      <c r="K60" s="32"/>
+    </row>
+    <row r="61" ht="18.75" spans="1:11">
       <c r="A61" s="23"/>
       <c r="B61" s="24"/>
       <c r="C61" s="25"/>
@@ -2358,9 +2452,10 @@
       <c r="G61" s="33"/>
       <c r="H61" s="34"/>
       <c r="I61" s="34"/>
-      <c r="J61" s="32"/>
-    </row>
-    <row r="62" ht="18.75" spans="1:10">
+      <c r="J61" s="34"/>
+      <c r="K61" s="32"/>
+    </row>
+    <row r="62" ht="18.75" spans="1:11">
       <c r="A62" s="23"/>
       <c r="B62" s="24"/>
       <c r="C62" s="25"/>
@@ -2370,9 +2465,10 @@
       <c r="G62" s="33"/>
       <c r="H62" s="34"/>
       <c r="I62" s="34"/>
-      <c r="J62" s="32"/>
-    </row>
-    <row r="63" ht="18.75" spans="1:10">
+      <c r="J62" s="34"/>
+      <c r="K62" s="32"/>
+    </row>
+    <row r="63" ht="18.75" spans="1:11">
       <c r="A63" s="23"/>
       <c r="B63" s="24"/>
       <c r="C63" s="25"/>
@@ -2382,9 +2478,10 @@
       <c r="G63" s="33"/>
       <c r="H63" s="34"/>
       <c r="I63" s="34"/>
-      <c r="J63" s="32"/>
-    </row>
-    <row r="64" ht="18.75" spans="1:10">
+      <c r="J63" s="34"/>
+      <c r="K63" s="32"/>
+    </row>
+    <row r="64" ht="18.75" spans="1:11">
       <c r="A64" s="23"/>
       <c r="B64" s="24"/>
       <c r="C64" s="25"/>
@@ -2394,9 +2491,10 @@
       <c r="G64" s="33"/>
       <c r="H64" s="34"/>
       <c r="I64" s="34"/>
-      <c r="J64" s="32"/>
-    </row>
-    <row r="65" ht="18.75" spans="1:10">
+      <c r="J64" s="34"/>
+      <c r="K64" s="32"/>
+    </row>
+    <row r="65" ht="18.75" spans="1:11">
       <c r="A65" s="23"/>
       <c r="B65" s="24"/>
       <c r="C65" s="25"/>
@@ -2406,9 +2504,10 @@
       <c r="G65" s="33"/>
       <c r="H65" s="34"/>
       <c r="I65" s="34"/>
-      <c r="J65" s="32"/>
-    </row>
-    <row r="66" ht="18.75" spans="1:10">
+      <c r="J65" s="34"/>
+      <c r="K65" s="32"/>
+    </row>
+    <row r="66" ht="18.75" spans="1:11">
       <c r="A66" s="23"/>
       <c r="B66" s="24"/>
       <c r="C66" s="25"/>
@@ -2418,9 +2517,10 @@
       <c r="G66" s="33"/>
       <c r="H66" s="34"/>
       <c r="I66" s="34"/>
-      <c r="J66" s="32"/>
-    </row>
-    <row r="67" ht="18.75" spans="1:10">
+      <c r="J66" s="34"/>
+      <c r="K66" s="32"/>
+    </row>
+    <row r="67" ht="18.75" spans="1:11">
       <c r="A67" s="23"/>
       <c r="B67" s="24"/>
       <c r="C67" s="25"/>
@@ -2430,9 +2530,10 @@
       <c r="G67" s="33"/>
       <c r="H67" s="34"/>
       <c r="I67" s="34"/>
-      <c r="J67" s="32"/>
-    </row>
-    <row r="68" ht="18.75" spans="1:10">
+      <c r="J67" s="34"/>
+      <c r="K67" s="32"/>
+    </row>
+    <row r="68" ht="18.75" spans="1:11">
       <c r="A68" s="23"/>
       <c r="B68" s="24"/>
       <c r="C68" s="25"/>
@@ -2442,9 +2543,10 @@
       <c r="G68" s="33"/>
       <c r="H68" s="34"/>
       <c r="I68" s="34"/>
-      <c r="J68" s="32"/>
-    </row>
-    <row r="69" ht="18.75" spans="1:10">
+      <c r="J68" s="34"/>
+      <c r="K68" s="32"/>
+    </row>
+    <row r="69" ht="18.75" spans="1:11">
       <c r="A69" s="23"/>
       <c r="B69" s="24"/>
       <c r="C69" s="25"/>
@@ -2454,9 +2556,10 @@
       <c r="G69" s="33"/>
       <c r="H69" s="34"/>
       <c r="I69" s="34"/>
-      <c r="J69" s="32"/>
-    </row>
-    <row r="70" ht="18.75" spans="1:10">
+      <c r="J69" s="34"/>
+      <c r="K69" s="32"/>
+    </row>
+    <row r="70" ht="18.75" spans="1:11">
       <c r="A70" s="23"/>
       <c r="B70" s="24"/>
       <c r="C70" s="25"/>
@@ -2466,9 +2569,10 @@
       <c r="G70" s="33"/>
       <c r="H70" s="34"/>
       <c r="I70" s="34"/>
-      <c r="J70" s="32"/>
-    </row>
-    <row r="71" ht="18.75" spans="1:10">
+      <c r="J70" s="34"/>
+      <c r="K70" s="32"/>
+    </row>
+    <row r="71" ht="18.75" spans="1:11">
       <c r="A71" s="23"/>
       <c r="B71" s="24"/>
       <c r="C71" s="25"/>
@@ -2478,9 +2582,10 @@
       <c r="G71" s="33"/>
       <c r="H71" s="34"/>
       <c r="I71" s="34"/>
-      <c r="J71" s="32"/>
-    </row>
-    <row r="72" ht="18.75" spans="1:10">
+      <c r="J71" s="34"/>
+      <c r="K71" s="32"/>
+    </row>
+    <row r="72" ht="18.75" spans="1:11">
       <c r="A72" s="23"/>
       <c r="B72" s="24"/>
       <c r="C72" s="25"/>
@@ -2490,9 +2595,10 @@
       <c r="G72" s="33"/>
       <c r="H72" s="34"/>
       <c r="I72" s="34"/>
-      <c r="J72" s="32"/>
-    </row>
-    <row r="73" ht="18.75" spans="1:10">
+      <c r="J72" s="34"/>
+      <c r="K72" s="32"/>
+    </row>
+    <row r="73" ht="18.75" spans="1:11">
       <c r="A73" s="23"/>
       <c r="B73" s="24"/>
       <c r="C73" s="25"/>
@@ -2502,9 +2608,10 @@
       <c r="G73" s="33"/>
       <c r="H73" s="34"/>
       <c r="I73" s="34"/>
-      <c r="J73" s="32"/>
-    </row>
-    <row r="74" ht="18.75" spans="1:10">
+      <c r="J73" s="34"/>
+      <c r="K73" s="32"/>
+    </row>
+    <row r="74" ht="18.75" spans="1:11">
       <c r="A74" s="23"/>
       <c r="B74" s="24"/>
       <c r="C74" s="25"/>
@@ -2514,9 +2621,10 @@
       <c r="G74" s="33"/>
       <c r="H74" s="34"/>
       <c r="I74" s="34"/>
-      <c r="J74" s="32"/>
-    </row>
-    <row r="75" ht="18.75" spans="1:10">
+      <c r="J74" s="34"/>
+      <c r="K74" s="32"/>
+    </row>
+    <row r="75" ht="18.75" spans="1:11">
       <c r="A75" s="23"/>
       <c r="B75" s="24"/>
       <c r="C75" s="25"/>
@@ -2526,14 +2634,15 @@
       <c r="G75" s="33"/>
       <c r="H75" s="34"/>
       <c r="I75" s="34"/>
-      <c r="J75" s="32"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6 H7 H10 H1:H5 H8:H9 H11:H1048576 I$1:I$1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6 I6 H7 I7 H10 I10 H1:H5 H8:H9 H11:H1048576 I1:I5 I8:I9 I11:I1048576 J$1:J$1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>"标准版,商务版,快捷版"</formula1>
     </dataValidation>
@@ -2572,7 +2681,7 @@
   <sheetData>
     <row r="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -2583,25 +2692,25 @@
     </row>
     <row r="2" customFormat="1" ht="19.5" spans="1:7">
       <c r="A2" s="13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="42" customHeight="1" spans="1:7">
@@ -2609,13 +2718,13 @@
         <v>42830</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -2626,20 +2735,20 @@
         <v>42831</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="82" customHeight="1" spans="1:7">
@@ -2647,20 +2756,20 @@
         <v>42831</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="18.75" spans="1:7">

--- a/GcOps/项目检查&PR会登记表.xlsx
+++ b/GcOps/项目检查&PR会登记表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="项目检查" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>项目检查情况登记表</t>
   </si>
@@ -149,6 +149,24 @@
     <t>林李纲</t>
   </si>
   <si>
+    <t>扬州豪景酒店</t>
+  </si>
+  <si>
+    <t>方琨</t>
+  </si>
+  <si>
+    <t>石杰</t>
+  </si>
+  <si>
+    <t>杭州银图电影主题酒店</t>
+  </si>
+  <si>
+    <t>倪飞</t>
+  </si>
+  <si>
+    <t>张广泉</t>
+  </si>
+  <si>
     <t>项目复盘【PR】登记表</t>
   </si>
   <si>
@@ -177,9 +195,6 @@
   </si>
   <si>
     <t>杭州银图</t>
-  </si>
-  <si>
-    <t>倪飞</t>
   </si>
   <si>
     <t>张惠、杨瑛、陈岑、应晓峰、王晓东、叶明、张文斌</t>
@@ -213,11 +228,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -254,13 +269,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -268,46 +276,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,9 +291,79 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,9 +374,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,42 +389,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -418,7 +433,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,7 +529,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,97 +583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,31 +595,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,19 +613,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,17 +699,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,17 +749,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,35 +790,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -789,10 +804,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -801,133 +816,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1485,9 +1500,9 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1769,9 +1784,11 @@
         <v>40</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="34"/>
+        <v>17</v>
+      </c>
+      <c r="H10" s="35">
+        <v>42852</v>
+      </c>
       <c r="I10" s="34" t="s">
         <v>26</v>
       </c>
@@ -1798,36 +1815,72 @@
         <v>43</v>
       </c>
       <c r="G11" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="35">
+        <v>42852</v>
+      </c>
+      <c r="I11" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
       <c r="J11" s="34"/>
       <c r="K11" s="32"/>
     </row>
     <row r="12" ht="18.75" spans="1:11">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="A12" s="23">
+        <v>42852</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>26</v>
+      </c>
       <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="I12" s="34" t="s">
+        <v>26</v>
+      </c>
       <c r="J12" s="34"/>
       <c r="K12" s="32"/>
     </row>
     <row r="13" ht="18.75" spans="1:11">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="A13" s="23">
+        <v>42852</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="35"/>
+      <c r="I13" s="34" t="s">
+        <v>26</v>
+      </c>
       <c r="J13" s="34"/>
       <c r="K13" s="32"/>
     </row>
@@ -2641,10 +2694,16 @@
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6 I6 H7 I7 H10 I10 H1:H5 H8:H9 H11:H1048576 I1:I5 I8:I9 I11:I1048576 J$1:J$1048576"/>
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6 H7 H10 H1:H5 H8:H9 H11:H1048576 J$1:J$1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+      <formula1>"A+,A,B,C,D"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>"标准版,商务版,快捷版"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
+      <formula1>"合格,不合格"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
       <formula1>"优秀,合格,不合格"</formula1>
@@ -2681,7 +2740,7 @@
   <sheetData>
     <row r="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -2692,25 +2751,25 @@
     </row>
     <row r="2" customFormat="1" ht="19.5" spans="1:7">
       <c r="A2" s="13" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="42" customHeight="1" spans="1:7">
@@ -2724,7 +2783,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -2735,20 +2794,20 @@
         <v>42831</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="82" customHeight="1" spans="1:7">
@@ -2756,20 +2815,20 @@
         <v>42831</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="20" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="18.75" spans="1:7">

--- a/GcOps/项目检查&PR会登记表.xlsx
+++ b/GcOps/项目检查&PR会登记表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="20295" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="项目检查" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>项目检查情况登记表</t>
   </si>
@@ -165,6 +165,27 @@
   </si>
   <si>
     <t>张广泉</t>
+  </si>
+  <si>
+    <t>黑龙江驿龙商务会馆</t>
+  </si>
+  <si>
+    <t>冯国文</t>
+  </si>
+  <si>
+    <t>繆杰</t>
+  </si>
+  <si>
+    <t>宁波阅居酒店</t>
+  </si>
+  <si>
+    <t>叶明</t>
+  </si>
+  <si>
+    <t>泉州艾舍酒店</t>
+  </si>
+  <si>
+    <t>花间堂 探花店，山塘店</t>
   </si>
   <si>
     <t>项目复盘【PR】登记表</t>
@@ -228,11 +249,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -269,14 +290,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,6 +311,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -298,8 +342,55 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,82 +413,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -406,7 +427,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,61 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,85 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,7 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,13 +502,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,11 +731,50 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,45 +812,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -804,10 +825,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,133 +837,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1500,9 +1521,9 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1846,9 +1867,11 @@
         <v>46</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="34"/>
+        <v>17</v>
+      </c>
+      <c r="H12" s="35">
+        <v>42857</v>
+      </c>
       <c r="I12" s="34" t="s">
         <v>26</v>
       </c>
@@ -1885,52 +1908,110 @@
       <c r="K13" s="32"/>
     </row>
     <row r="14" ht="18.75" spans="1:11">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
+      <c r="A14" s="23">
+        <v>42857</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="I14" s="34" t="s">
+        <v>26</v>
+      </c>
       <c r="J14" s="34"/>
       <c r="K14" s="32"/>
     </row>
     <row r="15" ht="18.75" spans="1:11">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
+      <c r="A15" s="23">
+        <v>42857</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="34"/>
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
       <c r="K15" s="32"/>
     </row>
     <row r="16" ht="18.75" spans="1:11">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
+      <c r="A16" s="23">
+        <v>42857</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>17</v>
+      </c>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
       <c r="J16" s="34"/>
       <c r="K16" s="32"/>
     </row>
     <row r="17" ht="18.75" spans="1:11">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
+      <c r="A17" s="23">
+        <v>42857</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>26</v>
+      </c>
       <c r="H17" s="34"/>
       <c r="I17" s="34"/>
       <c r="J17" s="34"/>
@@ -2702,11 +2783,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>"标准版,商务版,快捷版"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
+      <formula1>"优秀,合格,不合格"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
       <formula1>"合格,不合格"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
-      <formula1>"优秀,合格,不合格"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2740,7 +2821,7 @@
   <sheetData>
     <row r="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -2751,25 +2832,25 @@
     </row>
     <row r="2" customFormat="1" ht="19.5" spans="1:7">
       <c r="A2" s="13" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="42" customHeight="1" spans="1:7">
@@ -2783,7 +2864,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -2794,20 +2875,20 @@
         <v>42831</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="82" customHeight="1" spans="1:7">
@@ -2815,20 +2896,20 @@
         <v>42831</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="20" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="18.75" spans="1:7">

--- a/GcOps/项目检查&PR会登记表.xlsx
+++ b/GcOps/项目检查&PR会登记表.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="项目检查" sheetId="1" r:id="rId1"/>
     <sheet name="项目复盘" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>项目检查情况登记表</t>
   </si>
@@ -188,6 +188,15 @@
     <t>花间堂 探花店，山塘店</t>
   </si>
   <si>
+    <t>江南庭院酒店</t>
+  </si>
+  <si>
+    <t>肖宁</t>
+  </si>
+  <si>
+    <t>艾吧精品酒店</t>
+  </si>
+  <si>
     <t>项目复盘【PR】登记表</t>
   </si>
   <si>
@@ -228,9 +237,6 @@
   </si>
   <si>
     <t>尊瑞酒店宁海党校店</t>
-  </si>
-  <si>
-    <t>肖宁</t>
   </si>
   <si>
     <t>作为入职仅半个月的新人，复述时的表现不错，条理性、逻辑性、专业性都有所体现。沟通表达相对是强项，技术方面薄弱</t>
@@ -249,11 +255,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -297,17 +303,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,16 +331,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,14 +369,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -368,6 +379,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,22 +431,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,7 +460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,19 +478,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,7 +556,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,49 +586,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,13 +604,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,49 +628,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,7 +730,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,19 +738,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,6 +755,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,9 +815,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,10 +831,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -840,130 +846,130 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1521,9 +1527,9 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1898,9 +1904,11 @@
         <v>49</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="H13" s="35">
+        <v>42863</v>
+      </c>
       <c r="I13" s="34" t="s">
         <v>26</v>
       </c>
@@ -1956,10 +1964,14 @@
         <v>43</v>
       </c>
       <c r="G15" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="35">
+        <v>42863</v>
+      </c>
+      <c r="I15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
       <c r="J15" s="34"/>
       <c r="K15" s="32"/>
     </row>
@@ -2013,33 +2025,67 @@
         <v>26</v>
       </c>
       <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
+      <c r="I17" s="34" t="s">
+        <v>26</v>
+      </c>
       <c r="J17" s="34"/>
       <c r="K17" s="32"/>
     </row>
     <row r="18" ht="18.75" spans="1:11">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
+      <c r="A18" s="23">
+        <v>42863</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="35"/>
+      <c r="I18" s="34" t="s">
+        <v>26</v>
+      </c>
       <c r="J18" s="34"/>
       <c r="K18" s="32"/>
     </row>
     <row r="19" ht="18.75" spans="1:11">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="A19" s="23">
+        <v>42863</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>26</v>
+      </c>
       <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
+      <c r="I19" s="34" t="s">
+        <v>26</v>
+      </c>
       <c r="J19" s="34"/>
       <c r="K19" s="32"/>
     </row>
@@ -2821,7 +2867,7 @@
   <sheetData>
     <row r="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -2832,25 +2878,25 @@
     </row>
     <row r="2" customFormat="1" ht="19.5" spans="1:7">
       <c r="A2" s="13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="42" customHeight="1" spans="1:7">
@@ -2864,7 +2910,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -2875,20 +2921,20 @@
         <v>42831</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="82" customHeight="1" spans="1:7">
@@ -2896,20 +2942,20 @@
         <v>42831</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="18.75" spans="1:7">

--- a/GcOps/项目检查&PR会登记表.xlsx
+++ b/GcOps/项目检查&PR会登记表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>项目检查情况登记表</t>
   </si>
@@ -195,6 +195,15 @@
   </si>
   <si>
     <t>艾吧精品酒店</t>
+  </si>
+  <si>
+    <t>新源贵宾馆</t>
+  </si>
+  <si>
+    <t>严冬举</t>
+  </si>
+  <si>
+    <t>邓生斌</t>
   </si>
   <si>
     <t>项目复盘【PR】登记表</t>
@@ -256,10 +265,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -332,14 +341,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,18 +378,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -379,14 +405,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,23 +427,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,7 +435,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,7 +481,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,25 +625,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,127 +649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,6 +753,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -755,30 +773,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,6 +817,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -831,10 +840,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -843,133 +852,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1529,7 +1538,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2090,15 +2099,31 @@
       <c r="K19" s="32"/>
     </row>
     <row r="20" ht="18.75" spans="1:11">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="A20" s="23">
+        <v>42866</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>26</v>
+      </c>
       <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
+      <c r="I20" s="34" t="s">
+        <v>26</v>
+      </c>
       <c r="J20" s="34"/>
       <c r="K20" s="32"/>
     </row>
@@ -2822,10 +2847,10 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6 H7 H10 H1:H5 H8:H9 H11:H1048576 J$1:J$1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
       <formula1>"A+,A,B,C,D"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6 H7 H10 H1:H5 H8:H9 H11:H1048576 J$1:J$1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>"标准版,商务版,快捷版"</formula1>
     </dataValidation>
@@ -2867,7 +2892,7 @@
   <sheetData>
     <row r="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -2878,25 +2903,25 @@
     </row>
     <row r="2" customFormat="1" ht="19.5" spans="1:7">
       <c r="A2" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="42" customHeight="1" spans="1:7">
@@ -2910,7 +2935,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -2921,20 +2946,20 @@
         <v>42831</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="82" customHeight="1" spans="1:7">
@@ -2942,20 +2967,20 @@
         <v>42831</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="18.75" spans="1:7">
